--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N2">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q2">
-        <v>2717.974604622091</v>
+        <v>2281.429526338332</v>
       </c>
       <c r="R2">
-        <v>24461.77144159882</v>
+        <v>20532.86573704499</v>
       </c>
       <c r="S2">
-        <v>0.08094232961542537</v>
+        <v>0.08406634439512871</v>
       </c>
       <c r="T2">
-        <v>0.08094232961542537</v>
+        <v>0.08406634439512871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q3">
-        <v>6160.415554497937</v>
+        <v>3487.966161772771</v>
       </c>
       <c r="R3">
-        <v>55443.73999048144</v>
+        <v>31391.69545595494</v>
       </c>
       <c r="S3">
-        <v>0.1834595457706627</v>
+        <v>0.1285249275548566</v>
       </c>
       <c r="T3">
-        <v>0.1834595457706627</v>
+        <v>0.1285249275548566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N4">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O4">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P4">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q4">
-        <v>1268.052892694654</v>
+        <v>773.3362138551182</v>
       </c>
       <c r="R4">
-        <v>11412.47603425189</v>
+        <v>6960.025924696064</v>
       </c>
       <c r="S4">
-        <v>0.03776310309733572</v>
+        <v>0.02849597050298198</v>
       </c>
       <c r="T4">
-        <v>0.03776310309733572</v>
+        <v>0.02849597050298198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N5">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O5">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P5">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q5">
-        <v>2646.624048815132</v>
+        <v>1683.984319522589</v>
       </c>
       <c r="R5">
-        <v>23819.61643933618</v>
+        <v>15155.8588757033</v>
       </c>
       <c r="S5">
-        <v>0.078817482607455</v>
+        <v>0.0620516233907934</v>
       </c>
       <c r="T5">
-        <v>0.07881748260745497</v>
+        <v>0.0620516233907934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N6">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q6">
-        <v>521.035402265177</v>
+        <v>772.4433557880828</v>
       </c>
       <c r="R6">
-        <v>4689.318620386593</v>
+        <v>6951.990202092746</v>
       </c>
       <c r="S6">
-        <v>0.01551663477640093</v>
+        <v>0.028463070379225</v>
       </c>
       <c r="T6">
-        <v>0.01551663477640093</v>
+        <v>0.028463070379225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q7">
         <v>1180.950915104219</v>
@@ -883,10 +883,10 @@
         <v>10628.55823593797</v>
       </c>
       <c r="S7">
-        <v>0.03516917268743012</v>
+        <v>0.04351579796647677</v>
       </c>
       <c r="T7">
-        <v>0.03516917268743011</v>
+        <v>0.04351579796647678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N8">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O8">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P8">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q8">
-        <v>243.0855858311247</v>
+        <v>261.8351403303924</v>
       </c>
       <c r="R8">
-        <v>2187.770272480122</v>
+        <v>2356.516262973532</v>
       </c>
       <c r="S8">
-        <v>0.007239182286560553</v>
+        <v>0.009648127556712155</v>
       </c>
       <c r="T8">
-        <v>0.007239182286560553</v>
+        <v>0.009648127556712155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N9">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O9">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P9">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q9">
-        <v>507.3575093652571</v>
+        <v>570.1611572259609</v>
       </c>
       <c r="R9">
-        <v>4566.217584287314</v>
+        <v>5131.450415033648</v>
       </c>
       <c r="S9">
-        <v>0.01510930186252194</v>
+        <v>0.02100935560390157</v>
       </c>
       <c r="T9">
-        <v>0.01510930186252194</v>
+        <v>0.02100935560390157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N10">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q10">
-        <v>426.8581893403424</v>
+        <v>525.277397100662</v>
       </c>
       <c r="R10">
-        <v>3841.723704063082</v>
+        <v>4727.496573905959</v>
       </c>
       <c r="S10">
-        <v>0.01271200113565212</v>
+        <v>0.01935547430146324</v>
       </c>
       <c r="T10">
-        <v>0.01271200113565212</v>
+        <v>0.01935547430146324</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q11">
-        <v>967.4938922185754</v>
+        <v>803.0709541888707</v>
       </c>
       <c r="R11">
-        <v>8707.445029967179</v>
+        <v>7227.638587699837</v>
       </c>
       <c r="S11">
-        <v>0.02881234040660037</v>
+        <v>0.02959163920216329</v>
       </c>
       <c r="T11">
-        <v>0.02881234040660037</v>
+        <v>0.0295916392021633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N12">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O12">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P12">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q12">
-        <v>199.147836349517</v>
+        <v>178.0532901883975</v>
       </c>
       <c r="R12">
-        <v>1792.330527145653</v>
+        <v>1602.479611695578</v>
       </c>
       <c r="S12">
-        <v>0.005930699199539673</v>
+        <v>0.006560925525360209</v>
       </c>
       <c r="T12">
-        <v>0.005930699199539674</v>
+        <v>0.00656092552536021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N13">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O13">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P13">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q13">
-        <v>415.6525772612624</v>
+        <v>387.7213343235991</v>
       </c>
       <c r="R13">
-        <v>3740.873195351362</v>
+        <v>3489.492008912392</v>
       </c>
       <c r="S13">
-        <v>0.01237829369596337</v>
+        <v>0.01428679468039497</v>
       </c>
       <c r="T13">
-        <v>0.01237829369596337</v>
+        <v>0.01428679468039498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N14">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q14">
-        <v>3468.251828194593</v>
+        <v>3946.870905777265</v>
       </c>
       <c r="R14">
-        <v>31214.26645375133</v>
+        <v>35521.83815199539</v>
       </c>
       <c r="S14">
-        <v>0.1032858740437205</v>
+        <v>0.1454346956667641</v>
       </c>
       <c r="T14">
-        <v>0.1032858740437205</v>
+        <v>0.1454346956667641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>191.871922</v>
       </c>
       <c r="O15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q15">
-        <v>7860.953694339833</v>
+        <v>6034.178134939677</v>
       </c>
       <c r="R15">
-        <v>70748.58324905849</v>
+        <v>54307.60321445709</v>
       </c>
       <c r="S15">
-        <v>0.2341022259504591</v>
+        <v>0.2223480021526497</v>
       </c>
       <c r="T15">
-        <v>0.2341022259504591</v>
+        <v>0.2223480021526498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N16">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O16">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P16">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q16">
-        <v>1618.089718666509</v>
+        <v>1337.870912781404</v>
       </c>
       <c r="R16">
-        <v>14562.80746799858</v>
+        <v>12040.83821503264</v>
       </c>
       <c r="S16">
-        <v>0.04818733447064193</v>
+        <v>0.04929800180618316</v>
       </c>
       <c r="T16">
-        <v>0.04818733447064193</v>
+        <v>0.04929800180618317</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N17">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O17">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P17">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q17">
-        <v>3377.205467717433</v>
+        <v>2913.291267504692</v>
       </c>
       <c r="R17">
-        <v>30394.84920945689</v>
+        <v>26219.62140754223</v>
       </c>
       <c r="S17">
-        <v>0.1005744783936306</v>
+        <v>0.107349249314945</v>
       </c>
       <c r="T17">
-        <v>0.1005744783936306</v>
+        <v>0.107349249314945</v>
       </c>
     </row>
   </sheetData>
